--- a/6Timetable/data/20210623/●３会場一般予約枠６０歳以上.xlsx
+++ b/6Timetable/data/20210623/●３会場一般予約枠６０歳以上.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="会場" sheetId="8" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1168,8 +1168,8 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5"/>
@@ -4804,10 +4804,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4926,23 +4926,23 @@
         <v>3</v>
       </c>
       <c r="O2" s="48" t="str">
-        <f t="shared" ref="O2:O7" si="0">B2&amp;"/"&amp;TEXT(D2,"yyyy-mm-dd")</f>
+        <f t="shared" ref="O2:O10" si="0">B2&amp;"/"&amp;TEXT(D2,"yyyy-mm-dd")</f>
         <v>7/14～8/01_総合保健福祉センター(2)/2021-06-28</v>
       </c>
       <c r="P2" s="9" t="str">
-        <f t="shared" ref="P2:P7" si="1">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E2,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" ref="P2:P10" si="1">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-06-28T13:20:00.000+9</v>
       </c>
       <c r="Q2" s="9" t="str">
-        <f t="shared" ref="Q2:Q7" si="2">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" ref="Q2:Q10" si="2">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-06-28T13:30:00.000+9</v>
       </c>
       <c r="R2" s="9" t="str">
-        <f t="shared" ref="R2:R7" si="3">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" ref="R2:R10" si="3">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-06-28T13:20:00.000+9</v>
       </c>
       <c r="S2" s="9" t="str">
-        <f t="shared" ref="S2:S7" si="4">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" ref="S2:S10" si="4">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-06-28T13:30:00.000+9</v>
       </c>
     </row>
@@ -5015,13 +5015,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="str">
-        <v>7/14～8/01_東生涯学習センター(2)</v>
+        <v>7/14～8/01_総合保健福祉センター(2)</v>
       </c>
       <c r="C4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="30">
-        <v>44375</v>
+        <v>44385</v>
       </c>
       <c r="E4" s="36">
         <v>0.55555555555555558</v>
@@ -5055,23 +5055,23 @@
       </c>
       <c r="O4" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>7/14～8/01_東生涯学習センター(2)/2021-06-28</v>
+        <v>7/14～8/01_総合保健福祉センター(2)/2021-07-08</v>
       </c>
       <c r="P4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-28T13:20:00.000+9</v>
+        <v>2021-07-08T13:20:00.000+9</v>
       </c>
       <c r="Q4" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2021-06-28T13:30:00.000+9</v>
+        <v>2021-07-08T13:30:00.000+9</v>
       </c>
       <c r="R4" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>2021-06-28T13:20:00.000+9</v>
+        <v>2021-07-08T13:20:00.000+9</v>
       </c>
       <c r="S4" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>2021-06-28T13:30:00.000+9</v>
+        <v>2021-07-08T13:30:00.000+9</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1">
@@ -5085,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="30">
-        <v>44382</v>
+        <v>44375</v>
       </c>
       <c r="E5" s="36">
         <v>0.55555555555555558</v>
@@ -5119,23 +5119,23 @@
       </c>
       <c r="O5" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>7/14～8/01_東生涯学習センター(2)/2021-07-05</v>
+        <v>7/14～8/01_東生涯学習センター(2)/2021-06-28</v>
       </c>
       <c r="P5" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>2021-07-05T13:20:00.000+9</v>
+        <v>2021-06-28T13:20:00.000+9</v>
       </c>
       <c r="Q5" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2021-07-05T13:30:00.000+9</v>
+        <v>2021-06-28T13:30:00.000+9</v>
       </c>
       <c r="R5" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>2021-07-05T13:20:00.000+9</v>
+        <v>2021-06-28T13:20:00.000+9</v>
       </c>
       <c r="S5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>2021-07-05T13:30:00.000+9</v>
+        <v>2021-06-28T13:30:00.000+9</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1">
@@ -5143,13 +5143,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="str">
-        <v>7/14～8/01_西南生涯学習センター(2)</v>
+        <v>7/14～8/01_東生涯学習センター(2)</v>
       </c>
       <c r="C6" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="30">
-        <v>44375</v>
+        <v>44382</v>
       </c>
       <c r="E6" s="36">
         <v>0.55555555555555558</v>
@@ -5183,23 +5183,23 @@
       </c>
       <c r="O6" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>7/14～8/01_西南生涯学習センター(2)/2021-06-28</v>
+        <v>7/14～8/01_東生涯学習センター(2)/2021-07-05</v>
       </c>
       <c r="P6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>2021-06-28T13:20:00.000+9</v>
+        <v>2021-07-05T13:20:00.000+9</v>
       </c>
       <c r="Q6" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>2021-06-28T13:30:00.000+9</v>
+        <v>2021-07-05T13:30:00.000+9</v>
       </c>
       <c r="R6" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>2021-06-28T13:20:00.000+9</v>
+        <v>2021-07-05T13:20:00.000+9</v>
       </c>
       <c r="S6" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>2021-06-28T13:30:00.000+9</v>
+        <v>2021-07-05T13:30:00.000+9</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1">
@@ -5207,13 +5207,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="str">
-        <v>7/14～8/01_西南生涯学習センター(2)</v>
+        <v>7/14～8/01_東生涯学習センター(2)</v>
       </c>
       <c r="C7" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="30">
-        <v>44382</v>
+        <v>44385</v>
       </c>
       <c r="E7" s="36">
         <v>0.55555555555555558</v>
@@ -5247,23 +5247,215 @@
       </c>
       <c r="O7" s="48" t="str">
         <f t="shared" si="0"/>
+        <v>7/14～8/01_東生涯学習センター(2)/2021-07-08</v>
+      </c>
+      <c r="P7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-07-08T13:20:00.000+9</v>
+      </c>
+      <c r="Q7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>2021-07-08T13:30:00.000+9</v>
+      </c>
+      <c r="R7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2021-07-08T13:20:00.000+9</v>
+      </c>
+      <c r="S7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>2021-07-08T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <v>7/14～8/01_西南生涯学習センター(2)</v>
+      </c>
+      <c r="C8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30">
+        <v>44375</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="I8" s="20">
+        <v>10</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>120</v>
+      </c>
+      <c r="M8" s="20">
+        <v>3</v>
+      </c>
+      <c r="N8" s="20">
+        <v>3</v>
+      </c>
+      <c r="O8" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>7/14～8/01_西南生涯学習センター(2)/2021-06-28</v>
+      </c>
+      <c r="P8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-06-28T13:20:00.000+9</v>
+      </c>
+      <c r="Q8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>2021-06-28T13:30:00.000+9</v>
+      </c>
+      <c r="R8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2021-06-28T13:20:00.000+9</v>
+      </c>
+      <c r="S8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>2021-06-28T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <v>7/14～8/01_西南生涯学習センター(2)</v>
+      </c>
+      <c r="C9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>44382</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="I9" s="20">
+        <v>10</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <v>120</v>
+      </c>
+      <c r="M9" s="20">
+        <v>3</v>
+      </c>
+      <c r="N9" s="20">
+        <v>3</v>
+      </c>
+      <c r="O9" s="48" t="str">
+        <f t="shared" si="0"/>
         <v>7/14～8/01_西南生涯学習センター(2)/2021-07-05</v>
       </c>
-      <c r="P7" s="9" t="str">
+      <c r="P9" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-05T13:20:00.000+9</v>
       </c>
-      <c r="Q7" s="9" t="str">
+      <c r="Q9" s="9" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-05T13:30:00.000+9</v>
       </c>
-      <c r="R7" s="9" t="str">
+      <c r="R9" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-05T13:20:00.000+9</v>
       </c>
-      <c r="S7" s="9" t="str">
+      <c r="S9" s="9" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-05T13:30:00.000+9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <v>7/14～8/01_西南生涯学習センター(2)</v>
+      </c>
+      <c r="C10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30">
+        <v>44385</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="I10" s="20">
+        <v>10</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <v>120</v>
+      </c>
+      <c r="M10" s="20">
+        <v>3</v>
+      </c>
+      <c r="N10" s="20">
+        <v>3</v>
+      </c>
+      <c r="O10" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>7/14～8/01_西南生涯学習センター(2)/2021-07-08</v>
+      </c>
+      <c r="P10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-07-08T13:20:00.000+9</v>
+      </c>
+      <c r="Q10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>2021-07-08T13:30:00.000+9</v>
+      </c>
+      <c r="R10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>2021-07-08T13:20:00.000+9</v>
+      </c>
+      <c r="S10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>2021-07-08T13:30:00.000+9</v>
       </c>
     </row>
   </sheetData>
